--- a/biology/Biologie cellulaire et moléculaire/Kisspeptine/Kisspeptine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Kisspeptine/Kisspeptine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kisspeptine, ou métastine est un neuropeptide codé par le gène KISS1 qui se lie aux récepteurs couplés aux protéines G.
 </t>
@@ -511,10 +523,12 @@
           <t>Gène</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé sur le chromosome 1 humain.
-La dénomination « kisspeptine » fait référence au gène KISS-1, cloné en 1999 par une équipe américaine habitant en Pennsylvanie à Hershey ; dans cette ville, il existe une chocolaterie qui fabrique des « Hershey Kisses » (baisers d'Hershey) et le nom a été donné au gène en référence à cette chocolaterie[5].
+La dénomination « kisspeptine » fait référence au gène KISS-1, cloné en 1999 par une équipe américaine habitant en Pennsylvanie à Hershey ; dans cette ville, il existe une chocolaterie qui fabrique des « Hershey Kisses » (baisers d'Hershey) et le nom a été donné au gène en référence à cette chocolaterie.
 </t>
         </is>
       </c>
@@ -543,16 +557,14 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se fixe aux récepteurs couplés aux protéines G GPR54, ces derniers étant exprimés au niveau du placenta, l'hypophyse, le pancréas et la moelle épinière[6].
-Elle inhibe la formation de métastases des mélanomes et des cancers du sein[7].
-Elle intervient dans la régulation de la sécrétion en GnRH, augmentant la libération de cette dernière qui rétroagit en jouant sur la concentration en ARN messager de KISS1. Par ce biais, cette protéine jouerait un rôle dans le déclenchement de la puberté[8]. Chez la femme, elle stimule le relargage de LH en phase pré-ovulatoire[9]. Elle stimule la production de testostérone[10].
-Elle est responsable également de la pulsatilité de la sécrétion de GnRH. La kisspeptine étant inhibée par la prolactine, une hyperprolactinémie entraîne une baisse des hormones FSH et LH par cette voie[11]. 
-Comportements sexuels
-La kisspeptine joue également un rôle dans les comportements sexuels[12].  
-Chez la souris femelle, la réceptivité aux phéromones de potentiels partenaires et l'induction de postures favorables à l'accouplement sont contrôlé par des neurones à kisspeptine[13].  
-Chez l'humain, il a été montré que l'injection de kisspeptine augmente l'activité limbique à la vue de photographie de couple s'enlaçant, de façon sexuelle ou non[14].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se fixe aux récepteurs couplés aux protéines G GPR54, ces derniers étant exprimés au niveau du placenta, l'hypophyse, le pancréas et la moelle épinière.
+Elle inhibe la formation de métastases des mélanomes et des cancers du sein.
+Elle intervient dans la régulation de la sécrétion en GnRH, augmentant la libération de cette dernière qui rétroagit en jouant sur la concentration en ARN messager de KISS1. Par ce biais, cette protéine jouerait un rôle dans le déclenchement de la puberté. Chez la femme, elle stimule le relargage de LH en phase pré-ovulatoire. Elle stimule la production de testostérone.
+Elle est responsable également de la pulsatilité de la sécrétion de GnRH. La kisspeptine étant inhibée par la prolactine, une hyperprolactinémie entraîne une baisse des hormones FSH et LH par cette voie. 
 </t>
         </is>
       </c>
@@ -578,13 +590,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comportements sexuels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La kisspeptine joue également un rôle dans les comportements sexuels.  
+Chez la souris femelle, la réceptivité aux phéromones de potentiels partenaires et l'induction de postures favorables à l'accouplement sont contrôlé par des neurones à kisspeptine.  
+Chez l'humain, il a été montré que l'injection de kisspeptine augmente l'activité limbique à la vue de photographie de couple s'enlaçant, de façon sexuelle ou non.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kisspeptine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kisspeptine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène entraîne une forme rare d'hypogonadisme hypogonadotrophique[15].
-Son utilisation en tant que médicament est en cours de test : en injection, elle induit une maturation ovulaire qui pourrait faciliter les fécondations in vitro[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène entraîne une forme rare d'hypogonadisme hypogonadotrophique.
+Son utilisation en tant que médicament est en cours de test : en injection, elle induit une maturation ovulaire qui pourrait faciliter les fécondations in vitro.
 </t>
         </is>
       </c>
